--- a/datasets/five_two_af.xlsx
+++ b/datasets/five_two_af.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\weswa\Documents\R Working Directory\UnevenCrimeDrop\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F41667-4734-4A34-A04F-F45FD508296B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401139B1-B74E-452C-B548-6804F8B15439}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="38640" windowHeight="21240" xr2:uid="{743E4393-656B-4A9D-8350-DF623CA8FEF2}"/>
+    <workbookView xWindow="8040" yWindow="2700" windowWidth="28710" windowHeight="17985" xr2:uid="{743E4393-656B-4A9D-8350-DF623CA8FEF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,12 +45,6 @@
     <t>Female-Low income-Violence</t>
   </si>
   <si>
-    <t>Male-Middle income-Violence</t>
-  </si>
-  <si>
-    <t>Female-Middle income-Violence</t>
-  </si>
-  <si>
     <t>Male-High income-Violence</t>
   </si>
   <si>
@@ -58,12 +52,6 @@
   </si>
   <si>
     <t>Male-Low income-Theft</t>
-  </si>
-  <si>
-    <t>Female-Middle income-Theft</t>
-  </si>
-  <si>
-    <t>Male-Middle income-Theft</t>
   </si>
   <si>
     <t>Male-High income-Theft</t>
@@ -78,12 +66,6 @@
     <t>Female-Low income-Narcotics</t>
   </si>
   <si>
-    <t>Male-Middle income-Narcotics</t>
-  </si>
-  <si>
-    <t>Female-Middle income-Narcotics</t>
-  </si>
-  <si>
     <t>Male-High income-Narcotics</t>
   </si>
   <si>
@@ -91,6 +73,24 @@
   </si>
   <si>
     <t>Female-Low income-Theft</t>
+  </si>
+  <si>
+    <t>Male-Average income-Violence</t>
+  </si>
+  <si>
+    <t>Female-Average income-Violence</t>
+  </si>
+  <si>
+    <t>Male-Average income-Theft</t>
+  </si>
+  <si>
+    <t>Female-Average income-Theft</t>
+  </si>
+  <si>
+    <t>Male-Average income-Narcotics</t>
+  </si>
+  <si>
+    <t>Female-Average income-Narcotics</t>
   </si>
 </sst>
 </file>
@@ -546,52 +546,52 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="N1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">

--- a/datasets/five_two_af.xlsx
+++ b/datasets/five_two_af.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\weswa\Documents\R Working Directory\UnevenCrimeDrop\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401139B1-B74E-452C-B548-6804F8B15439}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7D1F58-3A67-45E7-BE3C-A5CF37B4B66F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8040" yWindow="2700" windowWidth="28710" windowHeight="17985" xr2:uid="{743E4393-656B-4A9D-8350-DF623CA8FEF2}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="38640" windowHeight="21240" xr2:uid="{743E4393-656B-4A9D-8350-DF623CA8FEF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,18 +60,6 @@
     <t>Female-High income-Theft</t>
   </si>
   <si>
-    <t>Male-Low income-Narcotics</t>
-  </si>
-  <si>
-    <t>Female-Low income-Narcotics</t>
-  </si>
-  <si>
-    <t>Male-High income-Narcotics</t>
-  </si>
-  <si>
-    <t>Female-High income-Narcotics</t>
-  </si>
-  <si>
     <t>Female-Low income-Theft</t>
   </si>
   <si>
@@ -87,10 +75,22 @@
     <t>Female-Average income-Theft</t>
   </si>
   <si>
-    <t>Male-Average income-Narcotics</t>
+    <t>Male-Low income-Drug</t>
   </si>
   <si>
-    <t>Female-Average income-Narcotics</t>
+    <t>Female-Low income-Drug</t>
+  </si>
+  <si>
+    <t>Male-Average income-Drug</t>
+  </si>
+  <si>
+    <t>Female-Average income-Drug</t>
+  </si>
+  <si>
+    <t>Male-High income-Drug</t>
+  </si>
+  <si>
+    <t>Female-High income-Drug</t>
   </si>
 </sst>
 </file>
@@ -546,10 +546,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
@@ -561,13 +561,13 @@
         <v>5</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>6</v>
@@ -576,22 +576,22 @@
         <v>7</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
